--- a/src/test/resources/callApi/callApi.xlsx
+++ b/src/test/resources/callApi/callApi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\callApi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2145D79B-3225-4C71-BCB6-46B152D9E4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C418A4E-8B17-4DAC-B428-CBE525FFE650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>TestCase</t>
   </si>
@@ -40,8 +40,6 @@
   },
   "body": {},
   "params": "",
-  "tests": {
-  },
   "store": [
     {
       "name": "name",
@@ -60,11 +58,47 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>saveProperties</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1.json</t>
+    <t>echo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${name}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${age}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${job}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{
+  "target": "https://task.hugang.io/time_entries.json",
+  "value": {
+    "method": "GET",
+    "headers": {
+      "X-Redmine-API-Key": "ed7449e623fc4b7bef6b0353cd59c5af652e2d66"
+    },
+    "body": {},
+    "params": "",
+    "store": [
+      {
+        "name": "name",
+        "value": "John"
+      },
+      {
+        "name": "age",
+        "responseKey": "total_count"
+      },
+      {
+        "name": "job",
+        "value": "Developer"
+      }
+    ]
+  }
+}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -161,7 +195,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -478,48 +512,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.25" style="2"/>
+    <col min="3" max="5" width="9.25" style="2"/>
+    <col min="6" max="6" width="59.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.25" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="393.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/test/resources/callApi/callApi.xlsx
+++ b/src/test/resources/callApi/callApi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\callApi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C418A4E-8B17-4DAC-B428-CBE525FFE650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A86B72-7E3A-419F-8C1B-94E69F9BD9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -122,14 +122,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -137,16 +129,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -158,11 +178,131 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -174,28 +314,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -514,42 +675,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.375" style="2" customWidth="1"/>
-    <col min="3" max="5" width="9.25" style="2"/>
-    <col min="6" max="6" width="59.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.25" style="2"/>
+    <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -563,26 +724,23 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+    <row r="3" spans="1:6" ht="370.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{2CD7F736-2718-4CF9-A5B0-38E17803F66C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/callApi/callApi.xlsx
+++ b/src/test/resources/callApi/callApi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\callApi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\github\auto-test\src\test\resources\callApi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A86B72-7E3A-419F-8C1B-94E69F9BD9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DEB88B-38AA-4BAF-AF3F-E0840F286468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,6 @@
   </si>
   <si>
     <t>callApi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://task.hugang.io/time_entries.json</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -74,15 +70,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{
-  "target": "https://task.hugang.io/time_entries.json",
+    <t>http://localhost:3000/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{
+  "target": "http://localhost:3000/2",
   "value": {
-    "method": "GET",
+    "method": "POST",
     "headers": {
       "X-Redmine-API-Key": "ed7449e623fc4b7bef6b0353cd59c5af652e2d66"
     },
     "body": {},
-    "params": "",
+    "params": "name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=hugang</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>",
     "store": [
       {
         "name": "name",
@@ -99,6 +120,7 @@
     ]
   }
 }</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -106,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -151,6 +173,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -377,9 +406,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -417,7 +446,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -523,7 +552,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -665,7 +694,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -675,7 +704,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -696,13 +727,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>1</v>
@@ -711,25 +742,25 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="370.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="372.75" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>

--- a/src/test/resources/callApi/callApi.xlsx
+++ b/src/test/resources/callApi/callApi.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\github\auto-test\src\test\resources\callApi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DEB88B-38AA-4BAF-AF3F-E0840F286468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F077037-7627-49CA-B6BA-665DB9570F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>TestCase</t>
   </si>
@@ -29,61 +42,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{
-  "method": "GET",
-  "headers": {
-    "X-Redmine-API-Key": "ed7449e623fc4b7bef6b0353cd59c5af652e2d66"
-  },
-  "body": {},
-  "params": "",
-  "store": [
-    {
-      "name": "name",
-      "value": "John"
-    },
-    {
-      "name": "age",
-      "responseKey": "total_count"
-    },
-    {
-      "name": "job",
-      "value": "Developer"
-    }
-  ]
-}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>echo</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${name}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${age}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${job}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>http://localhost:3000/1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
-      <t>{
-  "target": "http://localhost:3000/2",
-  "value": {
-    "method": "POST",
-    "headers": {
-      "X-Redmine-API-Key": "ed7449e623fc4b7bef6b0353cd59c5af652e2d66"
-    },
-    "body": {},
-    "params": "name</t>
+      <t>${</t>
     </r>
     <r>
       <rPr>
@@ -93,7 +61,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>=hugang</t>
+      <t>key1</t>
     </r>
     <r>
       <rPr>
@@ -103,24 +71,73 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>",
-    "store": [
-      {
-        "name": "name",
-        "value": "John"
-      },
-      {
-        "name": "age",
-        "responseKey": "total_count"
-      },
-      {
-        "name": "job",
-        "value": "Developer"
-      }
-    ]
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,${key2}</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{
+  "method": "GET",
+  "headers": {
+    "X-Redmine-API-Key": "ed7449e623fc4b7bef6b0353cd59c5af652e2d66"
+  },
+  "body": {},
+  "params": "",
+  "store": {
+    "type": "json",
+    "keys": "name1,name2"
   }
 }</t>
-    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{
+  "target": "http://localhost:3000/2",
+  "value": {
+    "method": "POST",
+    "headers": {
+      "X-Redmine-API-Key": "ed7449e623fc4b7bef6b0353cd59c5af652e2d66"
+    },
+    "body": {},
+    "params": "name=hugang",
+    "store": {
+      "keys": "name1,name2"
+    }
+  }
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{
+  "target": "http://localhost:3000/3",
+  "value": {
+    "method": "POST",
+    "body": {},
+    "params": "name=hugang",
+    "store": {
+      "type": "txt",
+      "keys": "key1,key2"
+    }
+  }
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${name1}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${name2}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -702,10 +719,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -713,13 +731,13 @@
     <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.25" style="1"/>
+    <col min="4" max="4" width="10.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="55.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -727,47 +745,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="11" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="372.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="213.75" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" s="8" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G3" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
